--- a/biology/Botanique/Jardin_Truillot/Jardin_Truillot.xlsx
+++ b/biology/Botanique/Jardin_Truillot/Jardin_Truillot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Truillot est un espace vert du 11e arrondissement de Paris, en France.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est situé dans le centre du 11e arrondissement de Paris. Il est délimité à l'est par le boulevard Voltaire et à l'ouest par le boulevard Richard-Lenoir. Au nord et au sud, il jouxte des habitations.
 Ce site est desservi par les lignes 9 à la station Saint-Ambroise et 5 à la station Richard-Lenoir.
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin prend une forme rectangulaire de 5 600 m2. Il ouvre une vue sur l'église Saint-Ambroise. Il prend la forme d'un jardin partagé.
 </t>
@@ -575,7 +591,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin Truillot doit son nom à la proximité de l'impasse Truillot. Cette voie porte le nom du propriétaire des terrains sur lesquels elle fut ouverte.
 </t>
@@ -606,7 +624,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin ouvre ses portes en 2018. 
 </t>
